--- a/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a50_reformulation.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a50_reformulation.xlsx
@@ -446,7 +446,7 @@
         <v>0.1779540567144672</v>
       </c>
       <c r="D2">
-        <v>3628.503627637</v>
+        <v>3627.08570026</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -472,7 +472,7 @@
         <v>0.155193892983387</v>
       </c>
       <c r="D3">
-        <v>3625.716117054</v>
+        <v>3643.359197051</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -498,7 +498,7 @@
         <v>0.19179931856979088</v>
       </c>
       <c r="D4">
-        <v>3629.282201095</v>
+        <v>3625.166957107</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -524,7 +524,7 @@
         <v>0.15059476244545386</v>
       </c>
       <c r="D5">
-        <v>3629.324384434</v>
+        <v>3626.97548697</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -550,7 +550,7 @@
         <v>0.16097652753308866</v>
       </c>
       <c r="D6">
-        <v>3640.795012511</v>
+        <v>3648.966281197</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-571.8529053023915</v>
+        <v>-571.8223658731081</v>
       </c>
       <c r="C7">
-        <v>0.1934393458016205</v>
+        <v>0.19879039647430619</v>
       </c>
       <c r="D7">
-        <v>3624.40046294</v>
+        <v>3627.445946476</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -602,7 +602,7 @@
         <v>0.12978498717458942</v>
       </c>
       <c r="D8">
-        <v>3630.489660493</v>
+        <v>3630.70043795</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -628,7 +628,7 @@
         <v>0.1954726535577382</v>
       </c>
       <c r="D9">
-        <v>3624.161472947</v>
+        <v>3628.673196055</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -651,10 +651,10 @@
         <v>-578.6217033942316</v>
       </c>
       <c r="C10">
-        <v>0.7176946666071514</v>
+        <v>0.7180756032894822</v>
       </c>
       <c r="D10">
-        <v>3625.557840896</v>
+        <v>3629.689509792</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -680,7 +680,7 @@
         <v>0.2836129707416011</v>
       </c>
       <c r="D11">
-        <v>3627.137131328</v>
+        <v>3632.019231597</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
